--- a/Covid19_20200401.xlsx
+++ b/Covid19_20200401.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S206"/>
+  <dimension ref="A1:S207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -429,28 +429,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187729</v>
+        <v>188647</v>
       </c>
       <c r="C3" t="n">
-        <v>23941</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>3867</v>
+        <v>4059</v>
       </c>
       <c r="E3" t="n">
-        <v>726</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>6461</v>
+        <v>7251</v>
       </c>
       <c r="G3" t="n">
-        <v>177401</v>
+        <v>177337</v>
       </c>
       <c r="H3" t="n">
-        <v>3988</v>
+        <v>4576</v>
       </c>
       <c r="I3" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
@@ -463,13 +463,13 @@
         <v>105792</v>
       </c>
       <c r="C4" t="n">
-        <v>4053</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>12428</v>
       </c>
       <c r="E4" t="n">
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>15729</v>
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95923</v>
+        <v>102136</v>
       </c>
       <c r="C5" t="n">
-        <v>7967</v>
+        <v>6213</v>
       </c>
       <c r="D5" t="n">
-        <v>8464</v>
+        <v>9053</v>
       </c>
       <c r="E5" t="n">
-        <v>748</v>
+        <v>589</v>
       </c>
       <c r="F5" t="n">
-        <v>19259</v>
+        <v>22647</v>
       </c>
       <c r="G5" t="n">
-        <v>68200</v>
+        <v>70436</v>
       </c>
       <c r="H5" t="n">
-        <v>5607</v>
+        <v>5872</v>
       </c>
       <c r="I5" t="n">
-        <v>2052</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="6">
@@ -522,28 +522,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71808</v>
+        <v>73217</v>
       </c>
       <c r="C6" t="n">
-        <v>4923</v>
+        <v>1409</v>
       </c>
       <c r="D6" t="n">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>16100</v>
       </c>
       <c r="G6" t="n">
-        <v>54933</v>
+        <v>56315</v>
       </c>
       <c r="H6" t="n">
         <v>2675</v>
       </c>
       <c r="I6" t="n">
-        <v>857</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7">
@@ -556,13 +556,13 @@
         <v>52128</v>
       </c>
       <c r="C7" t="n">
-        <v>7578</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>3523</v>
       </c>
       <c r="E7" t="n">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>9444</v>
@@ -584,28 +584,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44605</v>
+        <v>47593</v>
       </c>
       <c r="C8" t="n">
-        <v>3110</v>
+        <v>2988</v>
       </c>
       <c r="D8" t="n">
-        <v>2898</v>
+        <v>3036</v>
       </c>
       <c r="E8" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
-        <v>14656</v>
+        <v>15473</v>
       </c>
       <c r="G8" t="n">
-        <v>27051</v>
+        <v>29084</v>
       </c>
       <c r="H8" t="n">
-        <v>3703</v>
+        <v>3871</v>
       </c>
       <c r="I8" t="n">
-        <v>531</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9">
@@ -618,13 +618,13 @@
         <v>25150</v>
       </c>
       <c r="C9" t="n">
-        <v>3009</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1789</v>
       </c>
       <c r="E9" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>135</v>
@@ -649,19 +649,19 @@
         <v>16605</v>
       </c>
       <c r="C10" t="n">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>433</v>
       </c>
       <c r="E10" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1823</v>
+        <v>2967</v>
       </c>
       <c r="G10" t="n">
-        <v>14349</v>
+        <v>13205</v>
       </c>
       <c r="H10" t="n">
         <v>301</v>
@@ -673,94 +673,94 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13531</v>
+        <v>13964</v>
       </c>
       <c r="C11" t="n">
-        <v>2704</v>
+        <v>1189</v>
       </c>
       <c r="D11" t="n">
-        <v>214</v>
+        <v>828</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F11" t="n">
-        <v>243</v>
+        <v>2132</v>
       </c>
       <c r="G11" t="n">
-        <v>13074</v>
+        <v>11004</v>
       </c>
       <c r="H11" t="n">
-        <v>622</v>
+        <v>1088</v>
       </c>
       <c r="I11" t="n">
-        <v>160</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12775</v>
+        <v>13614</v>
       </c>
       <c r="C12" t="n">
-        <v>876</v>
+        <v>1019</v>
       </c>
       <c r="D12" t="n">
-        <v>705</v>
+        <v>1173</v>
       </c>
       <c r="E12" t="n">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="F12" t="n">
-        <v>1696</v>
+        <v>250</v>
       </c>
       <c r="G12" t="n">
-        <v>10374</v>
+        <v>12191</v>
       </c>
       <c r="H12" t="n">
-        <v>1021</v>
+        <v>1053</v>
       </c>
       <c r="I12" t="n">
-        <v>1102</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12595</v>
+        <v>13531</v>
       </c>
       <c r="C13" t="n">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1039</v>
+        <v>214</v>
       </c>
       <c r="E13" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G13" t="n">
-        <v>11306</v>
+        <v>13074</v>
       </c>
       <c r="H13" t="n">
-        <v>1053</v>
+        <v>847</v>
       </c>
       <c r="I13" t="n">
-        <v>735</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -770,28 +770,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10180</v>
+        <v>10444</v>
       </c>
       <c r="C14" t="n">
-        <v>562</v>
+        <v>264</v>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>1095</v>
+        <v>1436</v>
       </c>
       <c r="G14" t="n">
-        <v>8957</v>
+        <v>8862</v>
       </c>
       <c r="H14" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I14" t="n">
-        <v>1130</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="15">
@@ -801,28 +801,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9786</v>
+        <v>9887</v>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D15" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>5408</v>
+        <v>5567</v>
       </c>
       <c r="G15" t="n">
-        <v>4216</v>
+        <v>4155</v>
       </c>
       <c r="H15" t="n">
         <v>55</v>
       </c>
       <c r="I15" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
@@ -835,13 +835,13 @@
         <v>8612</v>
       </c>
       <c r="C16" t="n">
-        <v>1164</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1242</v>
@@ -863,28 +863,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7443</v>
+        <v>8251</v>
       </c>
       <c r="C17" t="n">
-        <v>1035</v>
+        <v>808</v>
       </c>
       <c r="D17" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
         <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>7240</v>
+        <v>8021</v>
       </c>
       <c r="H17" t="n">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="I17" t="n">
-        <v>730</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18">
@@ -894,22 +894,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5717</v>
+        <v>5812</v>
       </c>
       <c r="C18" t="n">
-        <v>1087</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>127</v>
       </c>
       <c r="G18" t="n">
-        <v>5389</v>
+        <v>5482</v>
       </c>
       <c r="H18" t="n">
         <v>296</v>
@@ -925,121 +925,121 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5358</v>
+        <v>5591</v>
       </c>
       <c r="C19" t="n">
-        <v>663</v>
+        <v>233</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G19" t="n">
-        <v>5114</v>
+        <v>5344</v>
       </c>
       <c r="H19" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I19" t="n">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4763</v>
+        <v>4947</v>
       </c>
       <c r="C20" t="n">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F20" t="n">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>4398</v>
+        <v>4692</v>
       </c>
       <c r="H20" t="n">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="I20" t="n">
-        <v>187</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4641</v>
+        <v>4864</v>
       </c>
       <c r="C21" t="n">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="G21" t="n">
-        <v>4589</v>
+        <v>4498</v>
       </c>
       <c r="H21" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="I21" t="n">
-        <v>856</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4435</v>
+        <v>4705</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>64</v>
       </c>
       <c r="D22" t="n">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>4239</v>
+        <v>4651</v>
       </c>
       <c r="H22" t="n">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="I22" t="n">
-        <v>439</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23">
@@ -1049,28 +1049,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3308</v>
+        <v>3330</v>
       </c>
       <c r="C23" t="n">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>3232</v>
+        <v>3253</v>
       </c>
       <c r="H23" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I23" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24">
@@ -1083,13 +1083,13 @@
         <v>3235</v>
       </c>
       <c r="C24" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>71</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2860</v>
+        <v>3092</v>
       </c>
       <c r="C25" t="n">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>2769</v>
+        <v>2987</v>
       </c>
       <c r="H25" t="n">
         <v>145</v>
       </c>
       <c r="I25" t="n">
-        <v>494</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26">
@@ -1142,276 +1142,276 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2766</v>
+        <v>2908</v>
       </c>
       <c r="C26" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="G26" t="n">
-        <v>2186</v>
+        <v>2218</v>
       </c>
       <c r="H26" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2738</v>
+        <v>2777</v>
       </c>
       <c r="C27" t="n">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="G27" t="n">
-        <v>2570</v>
+        <v>2563</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2337</v>
+        <v>2738</v>
       </c>
       <c r="C28" t="n">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G28" t="n">
-        <v>2199</v>
+        <v>2570</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I28" t="n">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2311</v>
+        <v>2460</v>
       </c>
       <c r="C29" t="n">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D29" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="G29" t="n">
-        <v>2271</v>
+        <v>2122</v>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I29" t="n">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2302</v>
+        <v>2347</v>
       </c>
       <c r="C30" t="n">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>2165</v>
+        <v>2305</v>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2245</v>
+        <v>2311</v>
       </c>
       <c r="C31" t="n">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>1943</v>
+        <v>2165</v>
       </c>
       <c r="H31" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2178</v>
+        <v>2302</v>
       </c>
       <c r="C32" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>2075</v>
+        <v>2165</v>
       </c>
       <c r="H32" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>3479</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2084</v>
+        <v>2178</v>
       </c>
       <c r="C33" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>49</v>
+        <v>472</v>
       </c>
       <c r="G33" t="n">
-        <v>1947</v>
+        <v>1649</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1953</v>
+        <v>2178</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="G34" t="n">
-        <v>1473</v>
+        <v>2075</v>
       </c>
       <c r="H34" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="35">
@@ -1421,22 +1421,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1938</v>
+        <v>2042</v>
       </c>
       <c r="C35" t="n">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D35" t="n">
         <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G35" t="n">
-        <v>1836</v>
+        <v>1934</v>
       </c>
       <c r="H35" t="n">
         <v>12</v>
@@ -1452,152 +1452,152 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1651</v>
+        <v>1771</v>
       </c>
       <c r="C36" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="G36" t="n">
-        <v>1299</v>
+        <v>1343</v>
       </c>
       <c r="H36" t="n">
         <v>23</v>
       </c>
       <c r="I36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1563</v>
+        <v>1677</v>
       </c>
       <c r="C37" t="n">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F37" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="G37" t="n">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="H37" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1528</v>
+        <v>1637</v>
       </c>
       <c r="C38" t="n">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="D38" t="n">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="G38" t="n">
-        <v>1311</v>
+        <v>1444</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1418</v>
+        <v>1563</v>
       </c>
       <c r="C39" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G39" t="n">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="H39" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I39" t="n">
-        <v>256</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1397</v>
+        <v>1446</v>
       </c>
       <c r="C40" t="n">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>1239</v>
+        <v>1419</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
@@ -1610,19 +1610,19 @@
         <v>1353</v>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>1317</v>
+        <v>1298</v>
       </c>
       <c r="H41" t="n">
         <v>7</v>
@@ -1641,13 +1641,13 @@
         <v>1314</v>
       </c>
       <c r="C42" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>49</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>52</v>
@@ -1665,125 +1665,125 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="C43" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
+        <v>35</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>9</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1142</v>
-      </c>
-      <c r="H43" t="n">
-        <v>50</v>
-      </c>
-      <c r="I43" t="n">
-        <v>274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1135</v>
+        <v>1181</v>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="G44" t="n">
-        <v>935</v>
+        <v>1142</v>
       </c>
       <c r="H44" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I44" t="n">
-        <v>3326</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1109</v>
+        <v>1135</v>
       </c>
       <c r="C45" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="G45" t="n">
-        <v>1053</v>
+        <v>935</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
-        <v>102</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1094</v>
+        <v>1109</v>
       </c>
       <c r="C46" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -1796,13 +1796,13 @@
         <v>1065</v>
       </c>
       <c r="C47" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>394</v>
@@ -1827,13 +1827,13 @@
         <v>1054</v>
       </c>
       <c r="C48" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>27</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>240</v>
@@ -1851,125 +1851,125 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>926</v>
+        <v>963</v>
       </c>
       <c r="C49" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="G49" t="n">
-        <v>683</v>
+        <v>884</v>
       </c>
       <c r="H49" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I49" t="n">
-        <v>158</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="C50" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="G50" t="n">
-        <v>859</v>
+        <v>683</v>
       </c>
       <c r="H50" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I50" t="n">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C51" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G51" t="n">
-        <v>835</v>
+        <v>859</v>
       </c>
       <c r="H51" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I51" t="n">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="C52" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G52" t="n">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="H52" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I52" t="n">
-        <v>211</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
@@ -1979,28 +1979,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="C53" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="H53" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I53" t="n">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54">
@@ -2013,13 +2013,13 @@
         <v>781</v>
       </c>
       <c r="C54" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>62</v>
@@ -2041,90 +2041,90 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>745</v>
+        <v>779</v>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G55" t="n">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="H55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I55" t="n">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="C56" t="n">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="G56" t="n">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C57" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="G57" t="n">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>603</v>
       </c>
       <c r="G58" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H58" t="n">
         <v>15</v>
@@ -2168,13 +2168,13 @@
         <v>710</v>
       </c>
       <c r="C59" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>46</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>157</v>
@@ -2192,125 +2192,125 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="C60" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D60" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="G60" t="n">
-        <v>474</v>
+        <v>624</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="C61" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="G61" t="n">
-        <v>597</v>
+        <v>474</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="C62" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="C63" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G63" t="n">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
@@ -2320,22 +2320,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="C64" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2347,94 +2347,94 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="C65" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>268</v>
+        <v>566</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
-        <v>333</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B66" t="n">
+        <v>571</v>
+      </c>
+      <c r="C66" t="n">
+        <v>39</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>31</v>
+      </c>
+      <c r="G66" t="n">
         <v>537</v>
       </c>
-      <c r="C66" t="n">
-        <v>46</v>
-      </c>
-      <c r="D66" t="n">
-        <v>8</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>7</v>
-      </c>
-      <c r="G66" t="n">
-        <v>522</v>
-      </c>
       <c r="H66" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I66" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C67" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="G67" t="n">
-        <v>499</v>
+        <v>247</v>
       </c>
       <c r="H67" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>180</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68">
@@ -2444,28 +2444,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I68" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C69" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
         <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>37</v>
       </c>
       <c r="G69" t="n">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H69" t="n">
         <v>7</v>
       </c>
       <c r="I69" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
@@ -2506,400 +2506,400 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C70" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
         <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>17</v>
       </c>
       <c r="G70" t="n">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="H71" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>57</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C72" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C73" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="H73" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>381</v>
+      </c>
+      <c r="H74" t="n">
         <v>10</v>
       </c>
-      <c r="G74" t="n">
-        <v>354</v>
-      </c>
-      <c r="H74" t="n">
-        <v>12</v>
-      </c>
       <c r="I74" t="n">
-        <v>4866</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I75" t="n">
-        <v>66</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C76" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G76" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H76" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C78" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G79" t="n">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="H79" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I79" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C80" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I80" t="n">
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G81" t="n">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I81" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G82" t="n">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H82" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G83" t="n">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H83" t="n">
         <v>13</v>
       </c>
       <c r="I83" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84">
@@ -2943,7 +2943,7 @@
         <v>274</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>5</v>
@@ -2974,13 +2974,13 @@
         <v>262</v>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>23</v>
@@ -3005,13 +3005,13 @@
         <v>261</v>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>14</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>32</v>
@@ -3029,63 +3029,63 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Réunion</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C87" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="G87" t="n">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>276</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Réunion</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C88" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>246</v>
+      </c>
+      <c r="H88" t="n">
         <v>4</v>
       </c>
-      <c r="F88" t="n">
-        <v>52</v>
-      </c>
-      <c r="G88" t="n">
-        <v>176</v>
-      </c>
-      <c r="H88" t="n">
-        <v>8</v>
-      </c>
       <c r="I88" t="n">
-        <v>84</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89">
@@ -3098,13 +3098,13 @@
         <v>236</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>26</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>13</v>
@@ -3122,63 +3122,63 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C91" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G91" t="n">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -3188,90 +3188,90 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>34</v>
       </c>
       <c r="G92" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G94" t="n">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -3281,413 +3281,413 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G95" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B97" t="n">
+        <v>186</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="n">
         <v>172</v>
       </c>
-      <c r="C97" t="n">
-        <v>23</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>7</v>
-      </c>
-      <c r="G97" t="n">
-        <v>163</v>
-      </c>
       <c r="H97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Faeroe Islands</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G98" t="n">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3459</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G99" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>383</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Faeroe Islands</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G100" t="n">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>53</v>
+      </c>
+      <c r="G102" t="n">
+        <v>108</v>
+      </c>
+      <c r="H102" t="n">
         <v>2</v>
       </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>138</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Channel Islands</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C103" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>7</v>
+        <v>915</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C104" t="n">
+        <v>16</v>
+      </c>
+      <c r="D104" t="n">
         <v>2</v>
       </c>
-      <c r="D104" t="n">
-        <v>7</v>
-      </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G104" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Channel Islands</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>811</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G106" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I106" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G107" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -3696,295 +3696,295 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G108" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>295</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C109" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>52</v>
+      </c>
+      <c r="G109" t="n">
+        <v>78</v>
+      </c>
+      <c r="H109" t="n">
         <v>3</v>
       </c>
-      <c r="E109" t="n">
-        <v>2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>27</v>
-      </c>
-      <c r="G109" t="n">
-        <v>98</v>
-      </c>
-      <c r="H109" t="n">
-        <v>15</v>
-      </c>
       <c r="I109" t="n">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G110" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I110" t="n">
-        <v>23</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>118</v>
+      </c>
+      <c r="H111" t="n">
         <v>4</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>22</v>
-      </c>
-      <c r="G111" t="n">
-        <v>88</v>
-      </c>
-      <c r="H111" t="n">
-        <v>14</v>
-      </c>
       <c r="I111" t="n">
-        <v>285</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C112" t="n">
+        <v>8</v>
+      </c>
+      <c r="D112" t="n">
         <v>7</v>
       </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C113" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>174</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G114" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I114" t="n">
-        <v>7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H115" t="n">
         <v>3</v>
       </c>
       <c r="I115" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C117" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G117" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -3997,13 +3997,13 @@
         <v>94</v>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>10</v>
@@ -4025,28 +4025,28 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
         <v>4</v>
       </c>
-      <c r="D119" t="n">
-        <v>3</v>
-      </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120">
@@ -4059,7 +4059,7 @@
         <v>75</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -4083,45 +4083,45 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>69</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
-        <v>2048</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4130,47 +4130,47 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G122" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1783</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>9</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="124">
@@ -4180,10 +4180,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>706</v>
+        <v>764</v>
       </c>
     </row>
     <row r="125">
@@ -4214,7 +4214,7 @@
         <v>59</v>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -4245,7 +4245,7 @@
         <v>57</v>
       </c>
       <c r="C126" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -4300,63 +4300,63 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C128" t="n">
         <v>3</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G128" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>1325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
         <v>2</v>
       </c>
-      <c r="D129" t="n">
-        <v>5</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>25</v>
-      </c>
       <c r="G129" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="130">
@@ -4369,7 +4369,7 @@
         <v>51</v>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>44</v>
       </c>
       <c r="C131" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>41</v>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -4455,63 +4455,63 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12</v>
+      </c>
+      <c r="G133" t="n">
+        <v>26</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2</v>
-      </c>
-      <c r="G133" t="n">
-        <v>34</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>38</v>
       </c>
       <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
         <v>2</v>
       </c>
-      <c r="D134" t="n">
-        <v>1</v>
-      </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -4524,7 +4524,7 @@
         <v>37</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -4548,48 +4548,48 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>36</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -4598,44 +4598,44 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>34</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4648,7 +4648,7 @@
         <v>34</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4679,13 +4679,13 @@
         <v>32</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>31</v>
       </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>5</v>
@@ -4710,7 +4710,7 @@
         <v>32</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -4734,48 +4734,48 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C142" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -4784,26 +4784,26 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -4812,29 +4812,29 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>30</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>2</v>
-      </c>
-      <c r="G144" t="n">
-        <v>24</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -4843,16 +4843,16 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -4939,13 +4939,13 @@
         <v>13</v>
       </c>
       <c r="G148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -4970,128 +4970,128 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Sint Maarten</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>16</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G150" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>56</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B151" t="n">
+        <v>16</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
         <v>15</v>
       </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>14</v>
-      </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Saint Martin</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>388</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>15</v>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>14</v>
@@ -5100,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Saint Martin</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5116,35 +5116,35 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>4</v>
+        <v>388</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>15</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -5162,48 +5162,48 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B156" t="n">
+        <v>15</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
         <v>14</v>
       </c>
-      <c r="C156" t="n">
-        <v>2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>13</v>
-      </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>213</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -5215,88 +5215,88 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="B158" t="n">
+        <v>14</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
         <v>13</v>
       </c>
-      <c r="C158" t="n">
-        <v>4</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" t="n">
-        <v>12</v>
-      </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>71</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B159" t="n">
+        <v>14</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2</v>
+      </c>
+      <c r="G159" t="n">
         <v>12</v>
       </c>
-      <c r="C159" t="n">
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>4</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>10</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>12</v>
@@ -5317,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>167</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5333,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
         <v>10</v>
@@ -5348,44 +5348,44 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Curaçao</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>67</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5395,59 +5395,59 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G163" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
         <v>2</v>
       </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
       <c r="G164" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5457,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>8</v>
@@ -5472,51 +5472,51 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>10</v>
       </c>
       <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
         <v>2</v>
       </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1</v>
-      </c>
       <c r="G166" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>10</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -5534,48 +5534,48 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B168" t="n">
+        <v>10</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
         <v>9</v>
       </c>
-      <c r="C168" t="n">
-        <v>3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" t="n">
-        <v>8</v>
-      </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5590,23 +5590,23 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -5621,26 +5621,26 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -5649,22 +5649,22 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5689,44 +5689,44 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B173" t="n">
+        <v>9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>8</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>7</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -5745,19 +5745,19 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5782,20 +5782,20 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>8</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -5813,51 +5813,51 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>2</v>
@@ -5881,7 +5881,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -5891,35 +5891,35 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>7</v>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -5937,23 +5937,23 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -5962,19 +5962,19 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -5990,22 +5990,22 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Vatican City</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6015,28 +6015,28 @@
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>7491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>St. Barth</t>
+          <t>Vatican City</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6052,29 +6052,29 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>607</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sint Maarten</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>6</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -6092,44 +6092,44 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>140</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>St. Barth</t>
         </is>
       </c>
       <c r="B186" t="n">
+        <v>6</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
         <v>5</v>
       </c>
-      <c r="C186" t="n">
-        <v>1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4</v>
-      </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6139,13 +6139,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -6160,7 +6160,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -6176,22 +6176,22 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Montserrat</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -6216,20 +6216,20 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1002</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Montserrat</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -6238,22 +6238,22 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Turks and Caicos</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -6269,53 +6269,53 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Turks and Caicos</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -6346,7 +6346,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -6365,23 +6365,23 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6396,26 +6396,26 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>British Virgin Islands</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -6433,13 +6433,13 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>British Virgin Islands</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6464,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6570,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -6594,14 +6594,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Caribbean Netherlands</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -6613,19 +6613,19 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>St. Vincent Grenadines</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -6641,29 +6641,29 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>St. Vincent Grenadines</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -6672,22 +6672,22 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -6718,31 +6718,62 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
+          <t>Timor-Leste</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>81518</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>3305</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>76052</v>
-      </c>
-      <c r="G206" t="n">
-        <v>2161</v>
-      </c>
-      <c r="H206" t="n">
-        <v>528</v>
-      </c>
-      <c r="I206" t="n">
+      <c r="B207" t="n">
+        <v>81554</v>
+      </c>
+      <c r="C207" t="n">
+        <v>36</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3312</v>
+      </c>
+      <c r="E207" t="n">
+        <v>7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>76238</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H207" t="n">
+        <v>466</v>
+      </c>
+      <c r="I207" t="n">
         <v>57</v>
       </c>
     </row>
